--- a/tweet_gen2.0.xlsx
+++ b/tweet_gen2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mcgill\Semester 6\COMP400\2.21 first_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meilinlyu/VSCodeProjects/BotOrNot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3F5D4C-B645-49BB-93B3-271F76CAE6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0203BCAB-B030-9C46-97DA-4CD8ECA515C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -112,13 +112,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -132,7 +132,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -162,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,11 +442,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -510,7 +512,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -518,7 +520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
